--- a/doc/docker-compose.xlsx
+++ b/doc/docker-compose.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="543" yWindow="82" windowWidth="18353" windowHeight="6928" activeTab="2"/>
+    <workbookView xWindow="543" yWindow="82" windowWidth="18353" windowHeight="6928" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="httpd실습" sheetId="3" r:id="rId1"/>
     <sheet name="docker" sheetId="2" r:id="rId2"/>
     <sheet name="docker-compose" sheetId="1" r:id="rId3"/>
+    <sheet name="commit push upload" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -4986,6 +4987,548 @@
             </a:rPr>
             <a:t>사용할 도커파일명</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491706</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7392838" y="379562"/>
+          <a:ext cx="2881222" cy="974785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.44bits.io/ko/post/building-docker-image-basic-commit-diff-and-dockerfile#%EB%93%A4%EC%96%B4%EA%B0%80%EB%A9%B0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518255</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12250180" cy="7643422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353683</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25879</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="353683" y="2889848"/>
+          <a:ext cx="2432649" cy="543465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120770</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178279</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7295072" y="3602965"/>
+          <a:ext cx="3177396" cy="543465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583722</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146649</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724401" y="488830"/>
+          <a:ext cx="943154" cy="270295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43132</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10636370" y="759124"/>
+          <a:ext cx="3899139" cy="3502325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>docker run -it --name my-python ubuntu:20.04</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>apt update</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>apt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> install -y python3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>python3 -m http.server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>docker commit my-python </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>jooladen/python3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>:1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>위와 같이 하면 이미지가 생성</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>컨테이너 생성이 아님</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>docker login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>docker push </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>jooladen/python3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>:1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>docker pull jooladen/python3:1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>docker run -it --name my-python </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jooladen/python3:1.0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
@@ -5359,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -5400,4 +5943,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>